--- a/data/ventas_producto.xlsx
+++ b/data/ventas_producto.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="producto" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="productos" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,133 +436,113 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>mes</t>
+          <t>nombre_producto</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>ingresos_mensuales</t>
+          <t>total_vendido</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2023-01</t>
+          <t>Banana</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6673099.74</v>
+        <v>2460324</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2023-02</t>
+          <t>Bolsa de Bananas Orgánicas</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4945202.53</v>
+        <v>1976709</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2023-03</t>
+          <t>Fresas Orgánicas</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4725676.75</v>
+        <v>1381309</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2023-04</t>
+          <t>Espinacas Baby Orgánicas</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3994824.12</v>
+        <v>1258330</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>Aguacate Hass Orgánico</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3626726.78</v>
+        <v>1104957</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2023-06</t>
+          <t>Aguacate Orgánico</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3125001</v>
+        <v>923461</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2023-07</t>
+          <t>Limón Grande</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2937364.05</v>
+        <v>804752</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2023-08</t>
+          <t>Fresas</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2533350.46</v>
+        <v>748065</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2023-09</t>
+          <t>Limones</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2343858.92</v>
+        <v>733736</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2023-10</t>
+          <t>Leche Entera Orgánica</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2127269.84</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2023-11</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1637899.98</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2023-12</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1184601.15</v>
+        <v>715085</v>
       </c>
     </row>
   </sheetData>
